--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09037743798025398</v>
+        <v>0.09141159620584156</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09131321263030238</v>
+        <v>0.09208908767587459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1075424163164645</v>
+        <v>0.1093530780444327</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08573759410636092</v>
+        <v>0.08941053417915859</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0995700453330091</v>
+        <v>0.1055438417558906</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2031086447254774</v>
+        <v>0.2028920281422308</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09712444757006453</v>
+        <v>0.09591098316646741</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1044209956895469</v>
+        <v>0.1011928250761272</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1588539639364473</v>
+        <v>0.1611980352645218</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1563319014407176</v>
+        <v>0.1590545609987082</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1559918945517228</v>
+        <v>0.1584278888398174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1648734869604186</v>
+        <v>0.1660476210073648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.159901828025405</v>
+        <v>0.161313468933115</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1782847455950851</v>
+        <v>0.1769509038664412</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2703205971526048</v>
+        <v>0.2683423267066715</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.145245344870704</v>
+        <v>0.1446439926898676</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1547331433875203</v>
+        <v>0.1540635667820195</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2026066622584324</v>
+        <v>0.2034721882437406</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1005847562237915</v>
+        <v>0.1013856155655381</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08364927867108984</v>
+        <v>0.08809729732389394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1207231644244767</v>
+        <v>0.1184685288320096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1512551320625834</v>
+        <v>0.1451018822021473</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1058046809876965</v>
+        <v>0.1103403932716619</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2379569621778781</v>
+        <v>0.240724169495884</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1315817121160236</v>
+        <v>0.1327064682088544</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1086511554993108</v>
+        <v>0.1061852337920451</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1854361713796576</v>
+        <v>0.1869563878801706</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1747971106320452</v>
+        <v>0.1773542830870612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1558518383581603</v>
+        <v>0.1584239210114713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1815117409666382</v>
+        <v>0.1817442538819625</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2377304719003053</v>
+        <v>0.2353535690082494</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1856081830827843</v>
+        <v>0.1895990659432268</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3139281548076848</v>
+        <v>0.3134145482634503</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1892371809327147</v>
+        <v>0.189507341651045</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1613131931186056</v>
+        <v>0.1629663792626178</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.233096983247982</v>
+        <v>0.2325729712668527</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1627948040739052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1817335907087573</v>
+        <v>0.1817335907087572</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2880172796854595</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1919669785963027</v>
+        <v>0.1901469061874828</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1305881726232709</v>
+        <v>0.1358330429250675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1515743018139312</v>
+        <v>0.1498579652477292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.234353051362946</v>
+        <v>0.2320721155083043</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2378127744935261</v>
+        <v>0.2441675496125375</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3275320952872303</v>
+        <v>0.3344954995946985</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2129462402023487</v>
+        <v>0.21480557502437</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1727602129730225</v>
+        <v>0.1694713596111969</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2107555667381975</v>
+        <v>0.2115707501359499</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2638578530104632</v>
+        <v>0.2619586201475361</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1956169029121483</v>
+        <v>0.198033007735959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.217548584088817</v>
+        <v>0.2177958930459983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3493740347148012</v>
+        <v>0.3475333622182826</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3968164758539994</v>
+        <v>0.3957021980213358</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4460181066033085</v>
+        <v>0.4477310726378027</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2743936051646542</v>
+        <v>0.27329489102495</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2323943576789727</v>
+        <v>0.2326904583454283</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2700262594923064</v>
+        <v>0.2731159868145059</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1746331538572306</v>
+        <v>0.1750995518333267</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1453273491634781</v>
+        <v>0.1452074290501645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1941003847383194</v>
+        <v>0.1988292920310011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1794819010415884</v>
+        <v>0.1809536743660319</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1688038192134225</v>
+        <v>0.1674787907262314</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2599360850223803</v>
+        <v>0.2628625795992947</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1835751029477295</v>
+        <v>0.1828866052574578</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1620909427554494</v>
+        <v>0.1600642706682844</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2339120190626687</v>
+        <v>0.2328898499950653</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2210878926947217</v>
+        <v>0.2238384521330853</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1893878550388867</v>
+        <v>0.1899708263340542</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2447050752355387</v>
+        <v>0.2468295408870081</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2374341424721671</v>
+        <v>0.2423741537173786</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2256160473487383</v>
+        <v>0.2268184802524656</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3164991237852661</v>
+        <v>0.3163876038514091</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2204020206835801</v>
+        <v>0.2196176638940814</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1969538518332177</v>
+        <v>0.197348534535943</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2696587415754768</v>
+        <v>0.2707199092079527</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1528171844659138</v>
+        <v>0.1514007451002721</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1699829101525415</v>
+        <v>0.16863550949495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1825619814801846</v>
+        <v>0.183723647270987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3357577938002372</v>
+        <v>0.337829269684555</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3053275060021377</v>
+        <v>0.3068898274689447</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3669402353097753</v>
+        <v>0.3677578761023886</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2686422702323626</v>
+        <v>0.2717065747440852</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2532530527858528</v>
+        <v>0.2516001031266649</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3009889099871661</v>
+        <v>0.303375996831006</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2224970043771863</v>
+        <v>0.222403281867446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2375191652096181</v>
+        <v>0.2329902146193601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2517071468066608</v>
+        <v>0.2487847715799799</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4069570381895176</v>
+        <v>0.4071209522330043</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.375670170927683</v>
+        <v>0.3784303180348306</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4236807943042676</v>
+        <v>0.4252167759874435</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3231698326911788</v>
+        <v>0.3227270709503701</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3029055665419956</v>
+        <v>0.3022796366858659</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3448221695170319</v>
+        <v>0.3469602591622754</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.02805680480376297</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09808386866678261</v>
+        <v>0.09808386866678262</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.3774599428253612</v>
@@ -1200,7 +1200,7 @@
         <v>0.3136402918953415</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.3568848577378345</v>
+        <v>0.3568848577378346</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.3102032189344781</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01170908136479594</v>
+        <v>0.01139425211095126</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01343833771187818</v>
+        <v>0.01378903389683616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05534463901834329</v>
+        <v>0.05417825788216455</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3500011066817004</v>
+        <v>0.34691767868004</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2857646540924509</v>
+        <v>0.2850007407987075</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3260816883972171</v>
+        <v>0.3275718058034268</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2847620144988112</v>
+        <v>0.2867394597199385</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2288948206686735</v>
+        <v>0.2281812768020428</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2727153044876348</v>
+        <v>0.2749132517152982</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06602839486494461</v>
+        <v>0.06714451707446646</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05370832250479722</v>
+        <v>0.0537369420909018</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1745770099275942</v>
+        <v>0.1698275056565095</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4076556084179991</v>
+        <v>0.4054276732473434</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3447689563608575</v>
+        <v>0.3451668317924016</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3867713928697788</v>
+        <v>0.3864964224083406</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3360393291721788</v>
+        <v>0.3344064211074939</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2762980987262004</v>
+        <v>0.2805360144677837</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3281119495683901</v>
+        <v>0.3300262019624589</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.2041830839342021</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.2558784223260291</v>
+        <v>0.255878422326029</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1568242401064175</v>
+        <v>0.1575629518154777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1378005648377789</v>
+        <v>0.1375213265814555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1697143854786912</v>
+        <v>0.169608615673925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2763132242154371</v>
+        <v>0.2758330183933116</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2428205980560732</v>
+        <v>0.2418541818624275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3123220628396937</v>
+        <v>0.312665735981226</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2215015321937877</v>
+        <v>0.2224377718626959</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1949075068581169</v>
+        <v>0.1939411964224365</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2471317186656213</v>
+        <v>0.2469157142605178</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1843885415923031</v>
+        <v>0.1849634405555491</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1624456688281898</v>
+        <v>0.1629958176528174</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1965721864241634</v>
+        <v>0.1964010654666688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3078778856197055</v>
+        <v>0.3076795011772002</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2723286244704599</v>
+        <v>0.2715185262866774</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3379622380068091</v>
+        <v>0.3401518262700675</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2427424819866145</v>
+        <v>0.2421633857571245</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2148881399682744</v>
+        <v>0.214150502972602</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2653350324176699</v>
+        <v>0.266054696953078</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>39514</v>
+        <v>39966</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>39182</v>
+        <v>39515</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59215</v>
+        <v>60212</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26961</v>
+        <v>28116</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>34556</v>
+        <v>36630</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>99200</v>
+        <v>99095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>73005</v>
+        <v>72093</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>81046</v>
+        <v>78541</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>165054</v>
+        <v>167489</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68350</v>
+        <v>69540</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66935</v>
+        <v>67980</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>90782</v>
+        <v>91429</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50282</v>
+        <v>50726</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>61875</v>
+        <v>61412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>132028</v>
+        <v>131061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>109176</v>
+        <v>108724</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>120096</v>
+        <v>119576</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>210514</v>
+        <v>211414</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>42125</v>
+        <v>42460</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31555</v>
+        <v>33233</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>58335</v>
+        <v>57245</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>51126</v>
+        <v>49046</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39388</v>
+        <v>41077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>100690</v>
+        <v>101861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>99582</v>
+        <v>100433</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>81434</v>
+        <v>79586</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>168071</v>
+        <v>169449</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73205</v>
+        <v>74275</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58792</v>
+        <v>59762</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>87709</v>
+        <v>87821</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80356</v>
+        <v>79552</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>69097</v>
+        <v>70583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>132837</v>
+        <v>132619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>143216</v>
+        <v>143421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>120904</v>
+        <v>122143</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>211269</v>
+        <v>210794</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>120827</v>
+        <v>119681</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68156</v>
+        <v>70893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>71484</v>
+        <v>70675</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>60962</v>
+        <v>60369</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39506</v>
+        <v>40562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61411</v>
+        <v>62717</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>189425</v>
+        <v>191079</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>118865</v>
+        <v>116602</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>138911</v>
+        <v>139448</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>166076</v>
+        <v>164881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>102095</v>
+        <v>103356</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>102599</v>
+        <v>102715</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>90882</v>
+        <v>90404</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>65920</v>
+        <v>65735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>83627</v>
+        <v>83948</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>244085</v>
+        <v>243108</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>159896</v>
+        <v>160099</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>177977</v>
+        <v>180013</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>202401</v>
+        <v>202942</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>167074</v>
+        <v>166936</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>219691</v>
+        <v>225044</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>137601</v>
+        <v>138729</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>139411</v>
+        <v>138317</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>223860</v>
+        <v>226380</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>353505</v>
+        <v>352179</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>320213</v>
+        <v>316209</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>466199</v>
+        <v>464162</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>256243</v>
+        <v>259431</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>217727</v>
+        <v>218398</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>276968</v>
+        <v>279372</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>182031</v>
+        <v>185818</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>186331</v>
+        <v>187324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>272573</v>
+        <v>272476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>424421</v>
+        <v>422910</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>389085</v>
+        <v>389865</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>537444</v>
+        <v>539559</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>78028</v>
+        <v>77305</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>105509</v>
+        <v>104673</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>103689</v>
+        <v>104348</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>255687</v>
+        <v>257264</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>225406</v>
+        <v>226560</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>304872</v>
+        <v>305552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>341745</v>
+        <v>345643</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>344158</v>
+        <v>341912</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>421028</v>
+        <v>424367</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>113606</v>
+        <v>113558</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>147430</v>
+        <v>144618</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142961</v>
+        <v>141301</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>309907</v>
+        <v>310032</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>277336</v>
+        <v>279374</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>352015</v>
+        <v>353291</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>411110</v>
+        <v>410547</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>411634</v>
+        <v>410783</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>482342</v>
+        <v>485333</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3125</v>
+        <v>3041</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3859</v>
+        <v>3959</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13129</v>
+        <v>12853</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>388274</v>
+        <v>384853</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>309204</v>
+        <v>308378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>275305</v>
+        <v>276563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>391899</v>
+        <v>394620</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>313396</v>
+        <v>312419</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>294944</v>
+        <v>297321</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17622</v>
+        <v>17920</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15422</v>
+        <v>15430</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41415</v>
+        <v>40288</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>452233</v>
+        <v>449762</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>373049</v>
+        <v>373479</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>326544</v>
+        <v>326312</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>462468</v>
+        <v>460221</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>378299</v>
+        <v>384101</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>354856</v>
+        <v>356926</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>536638</v>
+        <v>539166</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>466554</v>
+        <v>465609</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>584238</v>
+        <v>583874</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>980946</v>
+        <v>979242</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>857544</v>
+        <v>854131</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1135413</v>
+        <v>1136663</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1544316</v>
+        <v>1550844</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1348237</v>
+        <v>1341553</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1749166</v>
+        <v>1747637</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>630961</v>
+        <v>632928</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>549996</v>
+        <v>551859</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>676695</v>
+        <v>676106</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1093005</v>
+        <v>1092301</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>961755</v>
+        <v>958894</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1228626</v>
+        <v>1236586</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1692409</v>
+        <v>1688372</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1486450</v>
+        <v>1481347</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1878007</v>
+        <v>1883100</v>
       </c>
     </row>
     <row r="32">
